--- a/Idea1：AniCal.xlsx
+++ b/Idea1：AniCal.xlsx
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -434,10 +434,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -904,11 +904,11 @@
   </sheetPr>
   <dimension ref="B2:BQ23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
@@ -924,23 +924,23 @@
     <col min="69" max="16384" width="2.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:69" ht="16.5">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:69" ht="21" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+    <row r="4" spans="2:69" ht="18.75" customHeight="1">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:69">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:69" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:69" ht="17.25">
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>5</v>
@@ -1019,7 +1019,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:69" ht="13.5" customHeight="1">
       <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:69" ht="15.75" customHeight="1">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:69" ht="18.95" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:69" ht="18.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:69" ht="18.95" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:69" ht="18.95" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:69" ht="18.95" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:69" ht="18.95" customHeight="1">
       <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:69" ht="18.95" customHeight="1">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:69" ht="18.95" customHeight="1">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" ht="18.95" customHeight="1">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="18.95" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="2:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" ht="18.95" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="2:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="18.95" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="2:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="18.95" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
@@ -1445,13 +1445,13 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6">
       <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="19">
+    <row r="23" spans="2:6">
+      <c r="B23" s="18">
         <v>42682</v>
       </c>
     </row>
